--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2024.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2024.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D43186-1B1E-4F14-84B2-AE31F5E806EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FB95EA-7AA1-42EB-A1D8-833695645C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C43DC634-F6B2-4169-9ECC-CDDBB3AE289D}"/>
   </bookViews>
   <sheets>
     <sheet name="1ST Q 2024" sheetId="1" r:id="rId1"/>
+    <sheet name="2nd Q 2024" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1ST Q 2024'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2nd Q 2024'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -133,6 +135,39 @@
   </si>
   <si>
     <t>FEBRUARY 22- 26, 2024</t>
+  </si>
+  <si>
+    <t>COLETO, HANY ROY D.</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>APRIL 1 - MAY 1, 2024</t>
+  </si>
+  <si>
+    <t>CAPUPUS, LIZA FE F.</t>
+  </si>
+  <si>
+    <t>CITY HEALTH OFFICER II</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>JANUARY 24 - FEBRUARY 09, 2024</t>
+  </si>
+  <si>
+    <t>MEDICAL OFFICER III</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>MARCH 17 - 25, 2024</t>
+  </si>
+  <si>
+    <t>CAPUNO, DANIELLE VINCE D.</t>
   </si>
 </sst>
 </file>
@@ -662,7 +697,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,32 +927,60 @@
         <v>12</v>
       </c>
       <c r="I9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1183,4 +1246,464 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC771F66-8928-4E9E-BBD4-00DF28DD9606}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L                                      &amp;G&amp;C&amp;"-,Bold"&amp;12DILG Region IV-A (CALABARZON)
+Issuance of Certificate for Foreign Travel Authority of Local Officials and Employees
+Process Summary Log Sheet</oddHeader>
+    <oddFooter>&amp;LPREPARED BY: &amp;UJUEL D. COPER&amp;U
+&amp;D &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
 </file>
--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2024.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FB95EA-7AA1-42EB-A1D8-833695645C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF06ADF-5156-42A3-90CD-80489FA3DF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C43DC634-F6B2-4169-9ECC-CDDBB3AE289D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>CAPUNO, DANIELLE VINCE D.</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>MARCH 08 - 12, 2024</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>MARCH 27 - 31, 2024</t>
   </si>
 </sst>
 </file>
@@ -697,7 +709,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H10" sqref="H10:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,28 +995,56 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="4"/>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2024.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2024.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF06ADF-5156-42A3-90CD-80489FA3DF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C43DC634-F6B2-4169-9ECC-CDDBB3AE289D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1ST Q 2024" sheetId="1" r:id="rId1"/>
     <sheet name="2nd Q 2024" sheetId="3" r:id="rId2"/>
+    <sheet name="3rd Q 2024 " sheetId="4" r:id="rId3"/>
+    <sheet name="4th Q 2024" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1ST Q 2024'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2nd Q 2024'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'3rd Q 2024 '!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'4th Q 2024'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -180,12 +183,33 @@
   </si>
   <si>
     <t>MARCH 27 - 31, 2024</t>
+  </si>
+  <si>
+    <t>LIMBOC, FLORDELIZA J.</t>
+  </si>
+  <si>
+    <t>LABORATORY INPECTOR I</t>
+  </si>
+  <si>
+    <t>BANGKOK,THAILAND</t>
+  </si>
+  <si>
+    <t>MARCH 09,2024 - MARCH 14,2024</t>
+  </si>
+  <si>
+    <t>FOR APRIL 01 TO JUNE 30, 2024</t>
+  </si>
+  <si>
+    <t>FOR JULY 01 TO SEPTEMBER 30, 2024</t>
+  </si>
+  <si>
+    <t>FOR COTOBER 01 TO DECEMBER 31, 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,30 +726,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF42327E-D547-465D-82C7-4C624267AA71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -739,7 +763,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -765,7 +789,7 @@
       </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -787,7 +811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -813,7 +837,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -839,7 +863,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -865,7 +889,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -891,7 +915,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -917,7 +941,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -943,7 +967,7 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -969,7 +993,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -995,7 +1019,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1045,7 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1047,19 +1071,33 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="13"/>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1071,7 +1109,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1083,7 +1121,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1095,7 +1133,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1107,7 +1145,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1119,7 +1157,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1131,7 +1169,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1143,7 +1181,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1155,7 +1193,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1167,7 +1205,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1179,7 +1217,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1191,7 +1229,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1203,7 +1241,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1215,7 +1253,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1227,7 +1265,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1239,7 +1277,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1251,7 +1289,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1289,32 +1327,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC771F66-8928-4E9E-BBD4-00DF28DD9606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1326,7 +1364,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1390,7 @@
       </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1374,7 +1412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1438,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1412,7 +1450,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1424,7 +1462,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1436,7 +1474,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1448,7 +1486,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1460,7 +1498,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1472,7 +1510,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1484,7 +1522,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1496,7 +1534,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1508,7 +1546,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1520,7 +1558,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1532,7 +1570,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1544,7 +1582,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1556,7 +1594,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1568,7 +1606,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1580,7 +1618,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1592,7 +1630,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1604,7 +1642,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1616,7 +1654,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1628,7 +1666,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1640,7 +1678,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1652,7 +1690,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1664,7 +1702,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1676,7 +1714,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1688,7 +1726,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1700,7 +1738,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1712,7 +1750,927 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L                                      &amp;G&amp;C&amp;"-,Bold"&amp;12DILG Region IV-A (CALABARZON)
+Issuance of Certificate for Foreign Travel Authority of Local Officials and Employees
+Process Summary Log Sheet</oddHeader>
+    <oddFooter>&amp;LPREPARED BY: &amp;UJUEL D. COPER&amp;U
+&amp;D &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L                                      &amp;G&amp;C&amp;"-,Bold"&amp;12DILG Region IV-A (CALABARZON)
+Issuance of Certificate for Foreign Travel Authority of Local Officials and Employees
+Process Summary Log Sheet</oddHeader>
+    <oddFooter>&amp;LPREPARED BY: &amp;UJUEL D. COPER&amp;U
+&amp;D &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2024.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="1ST Q 2024" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'3rd Q 2024 '!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'4th Q 2024'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -204,6 +204,36 @@
   </si>
   <si>
     <t>FOR COTOBER 01 TO DECEMBER 31, 2024</t>
+  </si>
+  <si>
+    <t>MALANAN, ALMA A.</t>
+  </si>
+  <si>
+    <t>HRMO</t>
+  </si>
+  <si>
+    <t>CITY ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>SUSA, NANETTE B.</t>
+  </si>
+  <si>
+    <t>BAYOT, JENNIFER</t>
+  </si>
+  <si>
+    <t>OIC- GSO</t>
+  </si>
+  <si>
+    <t>AMON, RHEALYN OCAMPO</t>
+  </si>
+  <si>
+    <t>ACCOUNTANT IV</t>
+  </si>
+  <si>
+    <t>LERIO, ROSEMARIE VERGARA</t>
+  </si>
+  <si>
+    <t>CITY ACCOUNTANT</t>
   </si>
 </sst>
 </file>
@@ -732,8 +762,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,60 +1127,114 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="13"/>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="14"/>
@@ -2253,7 +2337,7 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
